--- a/chats.xlsx
+++ b/chats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PathonProjects\ParsingChats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15E2F26-993B-451C-95BB-8B2BC7379C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A8BDF8-8706-4878-A88B-72AB44621B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25590" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>https://t.me/bookSurfing</t>
-  </si>
-  <si>
-    <t>https://t.me/IgorLinkChannel</t>
-  </si>
-  <si>
     <t>https://t.me/jesusavgntwitch</t>
   </si>
   <si>
@@ -52,6 +46,12 @@
   </si>
   <si>
     <t>https://t.me/moikanaly2022</t>
+  </si>
+  <si>
+    <t>https://t.me/birzha_reklamy3</t>
+  </si>
+  <si>
+    <t>https://t.me/ozerkivrn</t>
   </si>
 </sst>
 </file>
@@ -383,54 +383,54 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
